--- a/Util/openl-maven-plugin/it/openl-gen-spreadsheetresults-beans/src/main/openl/rules/Main.xlsx
+++ b/Util/openl-maven-plugin/it/openl-gen-spreadsheetresults-beans/src/main/openl/rules/Main.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\Util\openl-maven-plugin\it\openl-gen-csr-beans\src\main\openl\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\Util\openl-maven-plugin\it\openl-gen-spreadsheetresults-beans\src\main\openl\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB7E313-1305-423E-B163-DB6927992A24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3E3903-45E5-4C8B-B84E-0C4B4F750562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,7 @@
     <t>org.openl.generated.outputmodel</t>
   </si>
   <si>
-    <t>Module</t>
+    <t>Global</t>
   </si>
 </sst>
 </file>

--- a/Util/openl-maven-plugin/it/openl-gen-spreadsheetresults-beans/src/main/openl/rules/Main.xlsx
+++ b/Util/openl-maven-plugin/it/openl-gen-spreadsheetresults-beans/src/main/openl/rules/Main.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\Util\openl-maven-plugin\it\openl-gen-spreadsheetresults-beans\src\main\openl\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\Util\openl-maven-plugin\target\its\openl-gen-spreadsheetresults-beans\src\main\openl\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3E3903-45E5-4C8B-B84E-0C4B4F750562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AC217D-EA2C-4F29-BE58-F9A9A6E584C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="3038" windowWidth="21600" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="136">
   <si>
     <t>Steps</t>
   </si>
@@ -420,10 +420,25 @@
     <t>spreadsheetResultPackage</t>
   </si>
   <si>
-    <t>org.openl.generated.outputmodel</t>
-  </si>
-  <si>
     <t>Global</t>
+  </si>
+  <si>
+    <t>org.openl.generated.sprbeans</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>lob</t>
+  </si>
+  <si>
+    <t>_context_.lob</t>
+  </si>
+  <si>
+    <t>LOB</t>
   </si>
 </sst>
 </file>
@@ -815,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:R65"/>
+  <dimension ref="A2:T65"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:L68"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1072,177 +1087,189 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="L33" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="M33" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="O33" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="P33" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="Q33" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="R33" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="S33" s="11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T33" s="11"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="K34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="M34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="N34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="O34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="P34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="P34" s="1" t="s">
+      <c r="Q34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Q34" s="1" t="s">
+      <c r="R34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R34" s="1" t="s">
+      <c r="S34" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T34" s="11"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="J35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="K35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="L35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="M35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="N35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="O35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="P35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P35" s="1" t="s">
+      <c r="Q35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q35" s="1" t="s">
+      <c r="R35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="R35" s="1" t="s">
+      <c r="S35" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T35" s="11"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1250,13 +1277,13 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1264,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B46" s="1" t="s">
         <v>40</v>
       </c>
@@ -1272,7 +1299,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>2</v>
       </c>
@@ -1280,7 +1307,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>3</v>
       </c>
@@ -1743,10 +1770,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935C0ECB-472E-44D3-B497-A79F0D31D051}">
-  <dimension ref="A2:E27"/>
+  <dimension ref="A2:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1835,7 +1862,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B17" s="7" t="s">
         <v>78</v>
       </c>
@@ -1846,7 +1873,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1857,7 +1884,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>77</v>
       </c>
@@ -1868,7 +1895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>75</v>
       </c>
@@ -1879,18 +1906,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
         <v>86</v>
@@ -1898,53 +1925,71 @@
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
         <v>83</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E25" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="11">
         <v>1</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="E26" s="11" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11">
+      <c r="C27" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11">
         <v>4</v>
       </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1953,10 +1998,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C063B9D-D463-454D-B64E-2E98DE8A2991}">
-  <dimension ref="A3:F41"/>
+  <dimension ref="A3:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2069,7 +2114,7 @@
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
         <v>78</v>
       </c>
@@ -2080,7 +2125,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B18" s="11" t="s">
         <v>0</v>
       </c>
@@ -2091,7 +2136,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B19" s="11" t="s">
         <v>90</v>
       </c>
@@ -2102,7 +2147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B20" s="11" t="s">
         <v>91</v>
       </c>
@@ -2113,83 +2158,111 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B23" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B24" s="11" t="s">
         <v>83</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="G24" s="11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B25" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E25" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B26" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="11"/>
+      <c r="C26" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="D26" s="11"/>
-      <c r="E26" t="s">
+      <c r="E26" s="11"/>
+      <c r="F26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" s="11" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B27" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="11">
         <v>1</v>
       </c>
-      <c r="D27" s="11">
+      <c r="E27" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
       <c r="B32" s="11" t="s">
         <v>126</v>
@@ -2204,7 +2277,7 @@
         <v>127</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -2215,7 +2288,7 @@
         <v>128</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -2250,22 +2323,32 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
+      <c r="B40" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
+      <c r="B41" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
     </row>

--- a/Util/openl-maven-plugin/it/openl-gen-spreadsheetresults-beans/src/main/openl/rules/Main.xlsx
+++ b/Util/openl-maven-plugin/it/openl-gen-spreadsheetresults-beans/src/main/openl/rules/Main.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\Util\openl-maven-plugin\target\its\openl-gen-spreadsheetresults-beans\src\main\openl\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\Util\openl-maven-plugin\it\openl-gen-spreadsheetresults-beans\src\main\openl\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AC217D-EA2C-4F29-BE58-F9A9A6E584C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA46634E-9F2A-4322-80D1-7ED02320A5E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="3038" windowWidth="21600" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="2948" windowWidth="21600" windowHeight="11535" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="140">
   <si>
     <t>Steps</t>
   </si>
@@ -345,60 +345,6 @@
     <t>= spr1(new Double[]{})</t>
   </si>
   <si>
-    <t>= instanceOf($Step2["step2"], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf($Step2["step4"], java.lang.reflect.Array.newInstance(Map.class, 1).getClass())</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Object[])$Step2["step8"])[0], Map.class)</t>
-  </si>
-  <si>
-    <t>=  instanceOf(((Object[][])$Step2["step6"])[0][0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Object[])$Step2["step14"])[0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Object[][])$Step2["step15"])[0][0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf($Step2["step13"], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Object[][])$Step2["step9"])[0][0], Map.class)</t>
-  </si>
-  <si>
-    <t>=  instanceOf(((Object[][])$Step2["step10"])[0][0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Object[])$Step2["step11"])[0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Map)$Step2["step16"]).keySet().iterator().next(), Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Map)$Step2["step16"]).values().iterator().next(), Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((List)$Step2["step17"])[0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Collection)$Step2["step18"]).iterator().next(), Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Collection)$Step2["step19"]).iterator().next(), Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf($Step2["step20"], Map.class)</t>
-  </si>
-  <si>
-    <t>_res_["step1"] : Double</t>
-  </si>
-  <si>
-    <t>_res_["step2"] : Double</t>
-  </si>
-  <si>
     <t>_res_["value1Step1"] : Double</t>
   </si>
   <si>
@@ -439,12 +385,79 @@
   </si>
   <si>
     <t>LOB</t>
+  </si>
+  <si>
+    <t>= instanceOf($Step2["Step2"], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf($Step2["Step4"], java.lang.reflect.Array.newInstance(Map.class, 1).getClass())</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Object[])$Step2["Step8"])[0], Map.class)</t>
+  </si>
+  <si>
+    <t>=  instanceOf(((Object[][])$Step2["Step6"])[0][0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Object[])$Step2["Step14"])[0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Object[][])$Step2["Step15"])[0][0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf($Step2["Step13"], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Object[][])$Step2["Step9"])[0][0], Map.class)</t>
+  </si>
+  <si>
+    <t>=  instanceOf(((Object[][])$Step2["Step10"])[0][0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Object[])$Step2["Step11"])[0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Map)$Step2["Step16"]).keySet().iterator().next(), Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Map)$Step2["Step16"]).values().iterator().next(), Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((List)$Step2["Step17"])[0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Collection)$Step2["Step18"]).iterator().next(), Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Collection)$Step2["Step19"]).iterator().next(), Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf($Step2["Step20"], Map.class)</t>
+  </si>
+  <si>
+    <t>_res_["Step1"] : Double</t>
+  </si>
+  <si>
+    <t>_res_["Step2"] : Double</t>
+  </si>
+  <si>
+    <t>_res_["Value1_Step1"] : Double</t>
+  </si>
+  <si>
+    <t>_res_["Value2_Step2"] : Double</t>
+  </si>
+  <si>
+    <t>_res_["Value3_Step3"] : Double</t>
+  </si>
+  <si>
+    <t>_res_["Value4_Step4"] : Double</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -475,7 +488,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -832,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:D41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1090,7 +1103,7 @@
     <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="11" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>38</v>
@@ -1148,7 +1161,7 @@
     <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="11" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>37</v>
@@ -1206,7 +1219,7 @@
     <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="11" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>39</v>
@@ -1328,7 +1341,7 @@
         <v>13</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.35">
@@ -1336,7 +1349,7 @@
         <v>14</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.35">
@@ -1344,7 +1357,7 @@
         <v>15</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.35">
@@ -1352,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.35">
@@ -1360,7 +1373,7 @@
         <v>19</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.35">
@@ -1368,7 +1381,7 @@
         <v>20</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.35">
@@ -1376,7 +1389,7 @@
         <v>21</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.35">
@@ -1384,7 +1397,7 @@
         <v>23</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.35">
@@ -1392,7 +1405,7 @@
         <v>52</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.35">
@@ -1400,7 +1413,7 @@
         <v>25</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.35">
@@ -1408,7 +1421,7 @@
         <v>27</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.35">
@@ -1416,7 +1429,7 @@
         <v>30</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.35">
@@ -1424,7 +1437,7 @@
         <v>55</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.35">
@@ -1432,7 +1445,7 @@
         <v>57</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.35">
@@ -1440,7 +1453,7 @@
         <v>59</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.35">
@@ -1448,7 +1461,7 @@
         <v>61</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1772,7 +1785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935C0ECB-472E-44D3-B497-A79F0D31D051}">
   <dimension ref="A2:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -1931,13 +1944,13 @@
         <v>83</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>120</v>
-      </c>
       <c r="E24" s="11" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -1948,7 +1961,7 @@
         <v>82</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>37</v>
@@ -1965,7 +1978,7 @@
         <v>80</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D26" s="11">
         <v>1</v>
@@ -1982,7 +1995,7 @@
         <v>81</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
@@ -2180,19 +2193,19 @@
         <v>83</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -2203,7 +2216,7 @@
         <v>82</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>37</v>
@@ -2222,7 +2235,7 @@
         <v>80</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -2241,7 +2254,7 @@
         <v>81</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D27" s="11">
         <v>1</v>
@@ -2265,7 +2278,7 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
       <c r="B32" s="11" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -2274,10 +2287,10 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
       <c r="B33" s="11" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -2285,10 +2298,10 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
       <c r="B34" s="11" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -2324,7 +2337,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="11"/>
       <c r="B39" s="11" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -2333,10 +2346,10 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="11"/>
       <c r="B40" s="11" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -2344,10 +2357,10 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="11"/>
       <c r="B41" s="11" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>

--- a/Util/openl-maven-plugin/it/openl-gen-spreadsheetresults-beans/src/main/openl/rules/Main.xlsx
+++ b/Util/openl-maven-plugin/it/openl-gen-spreadsheetresults-beans/src/main/openl/rules/Main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\openl-tablets\Util\openl-maven-plugin\it\openl-gen-spreadsheetresults-beans\src\main\openl\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CCFD28-E8C2-4D32-BC31-4D7F32436A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8B0708-563E-47EE-86F6-F28350E15272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4930" yWindow="1120" windowWidth="28390" windowHeight="14230" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15630" yWindow="3420" windowWidth="18460" windowHeight="15550" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4661" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4659" uniqueCount="660">
   <si>
     <t>Steps</t>
   </si>
@@ -2009,7 +2009,10 @@
     <t>StepZ</t>
   </si>
   <si>
-    <t>_res_["Value1_Step2"] : Double</t>
+    <t>_res_["Step1"] : Double</t>
+  </si>
+  <si>
+    <t>_res_["Step2"] : Double</t>
   </si>
 </sst>
 </file>
@@ -17111,7 +17114,7 @@
   <dimension ref="A2:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -17272,14 +17275,12 @@
         <v>111</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>129</v>
+        <v>658</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>658</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>130</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7">
@@ -17296,9 +17297,7 @@
       <c r="E25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7">
@@ -17327,10 +17326,10 @@
         <v>109</v>
       </c>
       <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11">
+      <c r="E27" s="11">
         <v>4</v>
       </c>
+      <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
   </sheetData>
